--- a/Config Files/Inputs_V1.xlsx
+++ b/Config Files/Inputs_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039D8D2-E743-4A0F-83E4-868925CF40A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE909A-0412-4344-B6BE-91C15E85E04B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,233 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{B19E9B4D-7188-4F8C-AD15-AD5E17B70149}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID iz tablice stringova u weinteku
+[000] InputOutputString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{52A85E26-ED29-4BC4-8F25-24E3A8C3187B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar za provjeru postojanja stignala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{C83B4C8B-2B9E-4F8F-9850-3E784866E495}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa za provjeru postojanja adrese</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{A6F13053-7464-4B1F-A681-2B5120527AA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DW za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{3FD7A19C-88D7-4D24-B4D8-3FF1F03C22EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uvijet za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{FE240590-38A6-4E1D-A5C1-C8DB1953B215}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pozicija bita u DW-u za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{CF87729B-2D98-4255-871A-6EE92DA92A68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{5D8DA268-9CFB-4093-B768-F8EE77E126FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{79E70647-E827-43FF-A3D6-2CB333FF2903}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+modbus data type</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="192">
   <si>
@@ -63,9 +290,6 @@
     <t>Addr</t>
   </si>
   <si>
-    <t>Data Type</t>
-  </si>
-  <si>
     <t>#GROUP# DIGITAL</t>
   </si>
   <si>
@@ -601,13 +825,16 @@
   </si>
   <si>
     <t>ROOM_PRESSURES_DATA_TYPE</t>
+  </si>
+  <si>
+    <t>Dana Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +862,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1724,341 +1964,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="B6">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>824</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21">
         <v>811</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2093,47 +2333,47 @@
         <v>8</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2145,13 +2385,13 @@
         <v>822</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2160,45 +2400,45 @@
         <v>171</v>
       </c>
       <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2210,13 +2450,13 @@
         <v>823</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2225,45 +2465,45 @@
         <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2275,13 +2515,13 @@
         <v>825</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2290,45 +2530,45 @@
         <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2340,13 +2580,13 @@
         <v>803</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2355,45 +2595,45 @@
         <v>174</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2405,13 +2645,13 @@
         <v>823</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2420,45 +2660,45 @@
         <v>175</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2470,13 +2710,13 @@
         <v>806</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2485,45 +2725,45 @@
         <v>176</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -2535,13 +2775,13 @@
         <v>807</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2550,45 +2790,45 @@
         <v>177</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -2600,13 +2840,13 @@
         <v>808</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2615,45 +2855,45 @@
         <v>178</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -2665,13 +2905,13 @@
         <v>809</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2680,45 +2920,45 @@
         <v>179</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2730,13 +2970,13 @@
         <v>831</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2745,45 +2985,45 @@
         <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -2795,13 +3035,13 @@
         <v>832</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2810,50 +3050,50 @@
         <v>35</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -2865,13 +3105,13 @@
         <v>802</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2880,45 +3120,45 @@
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C43">
         <v>13</v>
@@ -2930,13 +3170,13 @@
         <v>833</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -2945,45 +3185,45 @@
         <v>41</v>
       </c>
       <c r="K43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" t="s">
-        <v>17</v>
-      </c>
-      <c r="P43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>17</v>
-      </c>
-      <c r="R43" t="s">
-        <v>17</v>
-      </c>
-      <c r="S43" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" t="s">
-        <v>17</v>
-      </c>
-      <c r="U43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C44">
         <v>14</v>
@@ -2995,13 +3235,13 @@
         <v>834</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -3010,45 +3250,45 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>15</v>
@@ -3060,13 +3300,13 @@
         <v>835</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -3075,45 +3315,45 @@
         <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -3125,13 +3365,13 @@
         <v>836</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -3140,45 +3380,45 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>17</v>
@@ -3190,13 +3430,13 @@
         <v>837</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -3205,45 +3445,45 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3255,13 +3495,13 @@
         <v>838</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -3270,45 +3510,45 @@
         <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>19</v>
@@ -3320,13 +3560,13 @@
         <v>839</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -3335,45 +3575,45 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -3385,13 +3625,13 @@
         <v>840</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -3400,45 +3640,45 @@
         <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>21</v>
@@ -3450,13 +3690,13 @@
         <v>841</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -3465,45 +3705,45 @@
         <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>22</v>
@@ -3515,13 +3755,13 @@
         <v>842</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -3530,45 +3770,45 @@
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53">
         <v>23</v>
@@ -3580,13 +3820,13 @@
         <v>843</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -3595,45 +3835,45 @@
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -3645,13 +3885,13 @@
         <v>844</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -3660,45 +3900,45 @@
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55">
         <v>25</v>
@@ -3710,13 +3950,13 @@
         <v>845</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -3725,45 +3965,45 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56">
         <v>26</v>
@@ -3775,13 +4015,13 @@
         <v>846</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -3790,45 +4030,45 @@
         <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57">
         <v>27</v>
@@ -3840,13 +4080,13 @@
         <v>847</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -3855,45 +4095,45 @@
         <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>28</v>
@@ -3905,13 +4145,13 @@
         <v>848</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -3920,45 +4160,45 @@
         <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>29</v>
@@ -3970,13 +4210,13 @@
         <v>849</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -3985,45 +4225,45 @@
         <v>57</v>
       </c>
       <c r="K59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60">
         <v>30</v>
@@ -4035,13 +4275,13 @@
         <v>850</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -4050,45 +4290,45 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61">
         <v>31</v>
@@ -4100,13 +4340,13 @@
         <v>851</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -4115,45 +4355,45 @@
         <v>59</v>
       </c>
       <c r="K61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62">
         <v>32</v>
@@ -4165,13 +4405,13 @@
         <v>852</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -4180,45 +4420,45 @@
         <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63">
         <v>33</v>
@@ -4230,13 +4470,13 @@
         <v>853</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4245,45 +4485,45 @@
         <v>61</v>
       </c>
       <c r="K63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>34</v>
@@ -4295,13 +4535,13 @@
         <v>854</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -4310,45 +4550,45 @@
         <v>62</v>
       </c>
       <c r="K64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65">
         <v>35</v>
@@ -4360,13 +4600,13 @@
         <v>851</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -4375,45 +4615,45 @@
         <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66">
         <v>36</v>
@@ -4425,13 +4665,13 @@
         <v>851</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -4440,45 +4680,45 @@
         <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67">
         <v>37</v>
@@ -4490,13 +4730,13 @@
         <v>852</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -4505,45 +4745,45 @@
         <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68">
         <v>38</v>
@@ -4555,13 +4795,13 @@
         <v>852</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -4570,45 +4810,45 @@
         <v>66</v>
       </c>
       <c r="K68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69">
         <v>39</v>
@@ -4620,13 +4860,13 @@
         <v>853</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -4635,45 +4875,45 @@
         <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>40</v>
@@ -4685,13 +4925,13 @@
         <v>853</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -4700,45 +4940,45 @@
         <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71">
         <v>41</v>
@@ -4750,13 +4990,13 @@
         <v>855</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -4765,45 +5005,45 @@
         <v>69</v>
       </c>
       <c r="K71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72">
         <v>42</v>
@@ -4815,13 +5055,13 @@
         <v>856</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -4830,45 +5070,45 @@
         <v>70</v>
       </c>
       <c r="K72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73">
         <v>43</v>
@@ -4880,13 +5120,13 @@
         <v>857</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -4895,45 +5135,45 @@
         <v>71</v>
       </c>
       <c r="K73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>44</v>
@@ -4945,13 +5185,13 @@
         <v>858</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -4960,45 +5200,45 @@
         <v>72</v>
       </c>
       <c r="K74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75">
         <v>45</v>
@@ -5010,13 +5250,13 @@
         <v>859</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -5025,45 +5265,45 @@
         <v>73</v>
       </c>
       <c r="K75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76">
         <v>46</v>
@@ -5075,13 +5315,13 @@
         <v>860</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -5090,45 +5330,45 @@
         <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77">
         <v>47</v>
@@ -5140,13 +5380,13 @@
         <v>861</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -5155,45 +5395,45 @@
         <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78">
         <v>48</v>
@@ -5205,13 +5445,13 @@
         <v>862</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -5220,45 +5460,45 @@
         <v>76</v>
       </c>
       <c r="K78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79">
         <v>49</v>
@@ -5270,13 +5510,13 @@
         <v>863</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -5285,45 +5525,45 @@
         <v>77</v>
       </c>
       <c r="K79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80">
         <v>50</v>
@@ -5335,13 +5575,13 @@
         <v>864</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -5350,45 +5590,45 @@
         <v>78</v>
       </c>
       <c r="K80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81">
         <v>51</v>
@@ -5400,13 +5640,13 @@
         <v>865</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -5415,45 +5655,45 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <v>52</v>
@@ -5465,13 +5705,13 @@
         <v>866</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -5480,45 +5720,45 @@
         <v>80</v>
       </c>
       <c r="K82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83">
         <v>53</v>
@@ -5530,13 +5770,13 @@
         <v>867</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -5545,45 +5785,45 @@
         <v>81</v>
       </c>
       <c r="K83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84">
         <v>54</v>
@@ -5595,13 +5835,13 @@
         <v>868</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84">
         <v>3</v>
@@ -5610,45 +5850,45 @@
         <v>82</v>
       </c>
       <c r="K84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85">
         <v>55</v>
@@ -5660,13 +5900,13 @@
         <v>869</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -5675,45 +5915,45 @@
         <v>83</v>
       </c>
       <c r="K85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86">
         <v>56</v>
@@ -5725,13 +5965,13 @@
         <v>870</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -5740,45 +5980,45 @@
         <v>84</v>
       </c>
       <c r="K86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>57</v>
@@ -5790,13 +6030,13 @@
         <v>871</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -5805,45 +6045,45 @@
         <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88">
         <v>58</v>
@@ -5855,13 +6095,13 @@
         <v>872</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88">
         <v>3</v>
@@ -5870,45 +6110,45 @@
         <v>87</v>
       </c>
       <c r="K88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89">
         <v>59</v>
@@ -5920,13 +6160,13 @@
         <v>873</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -5935,45 +6175,45 @@
         <v>89</v>
       </c>
       <c r="K89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -5985,13 +6225,13 @@
         <v>874</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -6000,45 +6240,45 @@
         <v>90</v>
       </c>
       <c r="K90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91">
         <v>61</v>
@@ -6050,13 +6290,13 @@
         <v>875</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -6065,45 +6305,45 @@
         <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92">
         <v>62</v>
@@ -6115,13 +6355,13 @@
         <v>876</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -6130,60 +6370,60 @@
         <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93">
         <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93">
         <v>23</v>
@@ -6195,60 +6435,60 @@
         <v>131</v>
       </c>
       <c r="K93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94">
         <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94">
         <v>23</v>
@@ -6260,60 +6500,60 @@
         <v>132</v>
       </c>
       <c r="K94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95">
         <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>24</v>
@@ -6325,60 +6565,60 @@
         <v>146</v>
       </c>
       <c r="K95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96">
         <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96">
         <v>24</v>
@@ -6390,37 +6630,37 @@
         <v>147</v>
       </c>
       <c r="K96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6951,5 +7191,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config Files/Inputs_V1.xlsx
+++ b/Config Files/Inputs_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE909A-0412-4344-B6BE-91C15E85E04B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF928170-CD2B-434B-B816-DA3AD8CFFA7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{52A85E26-ED29-4BC4-8F25-24E3A8C3187B}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{C8A0D11C-4B5B-484B-8FF7-3706CE20F116}">
       <text>
         <r>
           <rPr>
@@ -75,11 +75,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar za provjeru postojanja stignala</t>
+tip registra za provjeru postojanja stignala</t>
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{C83B4C8B-2B9E-4F8F-9850-3E784866E495}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{1FF8204A-0431-4262-9241-3A77DAF92769}">
       <text>
         <r>
           <rPr>
@@ -99,11 +99,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-adresa za provjeru postojanja adrese</t>
+adresa za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{A6F13053-7464-4B1F-A681-2B5120527AA7}">
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{87D373C0-B05A-4BE4-8B18-34DE98D62443}">
       <text>
         <r>
           <rPr>
@@ -123,11 +123,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DW za provjeru postojanja signala</t>
+DW (double word u kojem bitovi označuju postojanje odgovarajućeg signala) za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{3FD7A19C-88D7-4D24-B4D8-3FF1F03C22EA}">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{86A90B92-0D6B-4CDD-86DE-98F583CF92EF}">
       <text>
         <r>
           <rPr>
@@ -147,11 +147,14 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-uvijet za provjeru postojanja signala</t>
+uvijet za provjeru postojanja signala. Npr:
+&lt; 1
+&gt; 2
+== 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{FE240590-38A6-4E1D-A5C1-C8DB1953B215}">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{F843C989-E535-41C4-8CB0-A82A6E6B565F}">
       <text>
         <r>
           <rPr>
@@ -175,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{CF87729B-2D98-4255-871A-6EE92DA92A68}">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{8E19727E-53EB-4E39-A73B-B6263F03D3FC}">
       <text>
         <r>
           <rPr>
@@ -195,11 +198,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar signala</t>
+tip registra signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{5D8DA268-9CFB-4093-B768-F8EE77E126FF}">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{D4601AE7-15E6-4E5C-98E1-70337629D43B}">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1971,7 @@
   <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
